--- a/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="9510"/>
@@ -3681,6 +3681,7 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4675,7 +4676,7 @@
   <dimension ref="A1:P137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
@@ -3640,10 +3640,6 @@
     <t>$SNMP_SearchEnd$</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Zoe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3681,6 +3677,10 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"UPS_10.146.83.13"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4675,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4770,7 +4770,7 @@
         <v>793</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
@@ -4877,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
@@ -4972,7 +4972,7 @@
         <v>56</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
@@ -5034,8 +5034,8 @@
       <c r="H11" s="23">
         <v>2</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>806</v>
+      <c r="I11" s="21" t="s">
+        <v>817</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="6"/>
@@ -5065,7 +5065,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -5212,18 +5212,18 @@
         <v>16</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>814</v>
       </c>
       <c r="J17" s="18" t="b">
         <v>0</v>
@@ -5243,18 +5243,18 @@
         <v>17</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J18" s="18" t="b">
         <v>0</v>
@@ -5274,7 +5274,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.10.20_UpDownArrowWhenMiddleDeviceSelected.xlsx
@@ -3680,7 +3680,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"UPS_10.146.83.13"</t>
+    <t>$NAME_SearchStart_2$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4675,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
